--- a/xlsx/FR/condition_FR.xlsx
+++ b/xlsx/FR/condition_FR.xlsx
@@ -12,30 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">People around you also changing their behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambitious climate policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having enough financial support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most well off also changing their behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great deal</t>
   </si>
 </sst>
 </file>
@@ -380,61 +386,93 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0800475726411826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0741411787267164</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0548068472714099</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0884405905608794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.196768596207238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.196895339414288</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.165903371241516</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.125414234326165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.330550145356337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.309959805597898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.331615453509898</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.228224829271772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.243986154329928</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.256234313158086</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.265575957315242</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.297477810179023</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.148647531465314</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.162769363103012</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.182098370661934</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.260442535662161</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/condition_FR.xlsx
+++ b/xlsx/FR/condition_FR.xlsx
@@ -395,16 +395,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0800475726411826</v>
+        <v>0.0829706941680865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0741411787267164</v>
+        <v>0.0709388190232809</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0548068472714099</v>
+        <v>0.0601886829273609</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0884405905608794</v>
+        <v>0.0812482078318751</v>
       </c>
     </row>
     <row r="3">
@@ -412,16 +412,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196768596207238</v>
+        <v>0.195275574781207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196895339414288</v>
+        <v>0.197996799625292</v>
       </c>
       <c r="D3" t="n">
-        <v>0.165903371241516</v>
+        <v>0.153025974234518</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125414234326165</v>
+        <v>0.127084283460927</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.330550145356337</v>
+        <v>0.328267211545869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.309959805597898</v>
+        <v>0.317336199001869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.331615453509898</v>
+        <v>0.340690977055366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.228224829271772</v>
+        <v>0.202916460790424</v>
       </c>
     </row>
     <row r="5">
@@ -446,16 +446,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.243986154329928</v>
+        <v>0.247853252568972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.256234313158086</v>
+        <v>0.238064108775707</v>
       </c>
       <c r="D5" t="n">
-        <v>0.265575957315242</v>
+        <v>0.243447241751101</v>
       </c>
       <c r="E5" t="n">
-        <v>0.297477810179023</v>
+        <v>0.306033144897599</v>
       </c>
     </row>
     <row r="6">
@@ -463,16 +463,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.148647531465314</v>
+        <v>0.145633266935864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.162769363103012</v>
+        <v>0.175664073573851</v>
       </c>
       <c r="D6" t="n">
-        <v>0.182098370661934</v>
+        <v>0.202647124031654</v>
       </c>
       <c r="E6" t="n">
-        <v>0.260442535662161</v>
+        <v>0.282717903019174</v>
       </c>
     </row>
   </sheetData>
